--- a/Final Version/Data/Config.xlsx
+++ b/Final Version/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssvr0\OneDrive\Documents\UiPath\Refactor\PreBuilts_ProtectOrUnprotectExcelFile\Final Version\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssvr0\OneDrive\Documents\UiPath\Refactor\PreBuilts_Protect-Or-Unprotect-Excel-File\Final Version\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6C99C-C0A9-48CD-B139-15B1C9301016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9010FCF0-9CB4-4581-84C6-C9E150962DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Defaults" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -98,12 +98,6 @@
     <t>First_Run</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Place description here</t>
-  </si>
-  <si>
     <t>Determines if the automation is being executed for the first time from the Assistant. If set to True, the Form will display regardless of whether the Check_To_Hide_Menu argument is checked in the Assistant.
 By default, this will always be True during the first run of an automation (including when a new version is published). After the first run, this value is changed to False and the Form will not display if the Check_To_Hide_Menu argument is checked in the Assistant.
 This ensures that the Form will always display on the first run of a newly published version.</t>
@@ -128,9 +122,6 @@
   </si>
   <si>
     <t>Name of the automation project.</t>
-  </si>
-  <si>
-    <t>OtherVariables1</t>
   </si>
   <si>
     <t>Credential</t>
@@ -183,6 +174,12 @@
   </si>
   <si>
     <t>This automation protects Excel workbooks with a password or unprotects them using the designated password.</t>
+  </si>
+  <si>
+    <t>str_Subfolder_protect</t>
+  </si>
+  <si>
+    <t>Check subfolders with excel - protect &amp; unprotect</t>
   </si>
 </sst>
 </file>
@@ -661,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE6A10C-E15C-4387-9F17-9E8A7BFADE1D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -685,13 +682,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -728,13 +725,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="6" customFormat="1" ht="14.4" hidden="1">
@@ -815,10 +812,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -828,13 +825,13 @@
     </row>
     <row r="6" spans="1:26" ht="28.8">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -844,36 +841,36 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4063,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
